--- a/trees_data.xlsx
+++ b/trees_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfranciscohenaodiaz/Documents/UBC/Projects/MainFeaturesMacroEv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47265C-D03F-554A-AF44-FCBECB9F3AA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE2E49-92EC-BD49-B104-298EB29B84D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27220" yWindow="1900" windowWidth="36100" windowHeight="18400" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,14 +657,14 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -829,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>79881</v>
+        <v>356305</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>29</v>
@@ -849,7 +849,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="1">
-        <v>610</v>
+        <v>1192</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>39</v>

--- a/trees_data.xlsx
+++ b/trees_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfranciscohenaodiaz/Documents/UBC/Projects/MainFeaturesMacroEv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscohenaodiaz/Documents/UBC/Projects/MajorFeatsMacroEvol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE2E49-92EC-BD49-B104-298EB29B84D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B33AD3-BA6B-6648-A3BC-AB648DA1F413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
+    <workbookView xWindow="760" yWindow="860" windowWidth="25600" windowHeight="15440" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>study.id</t>
   </si>
@@ -273,6 +273,18 @@
       </rPr>
       <t>(2), 288.</t>
     </r>
+  </si>
+  <si>
+    <t>V2019</t>
+  </si>
+  <si>
+    <t>Vargaetal2019</t>
+  </si>
+  <si>
+    <t>Agaricomycetes</t>
+  </si>
+  <si>
+    <t>Fungi</t>
   </si>
 </sst>
 </file>
@@ -654,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F6B5B-7B54-E74E-96D9-DD999532BC6A}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -774,95 +786,116 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>9755</v>
+        <v>356305</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
-        <v>4007</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>1192</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>356305</v>
+        <v>9755</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>1192</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>4007</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5284</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trees_data.xlsx
+++ b/trees_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscohenaodiaz/Documents/UBC/Projects/MajorFeatsMacroEvol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B33AD3-BA6B-6648-A3BC-AB648DA1F413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A0658-685B-2346-A7E9-0F0AC879613D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="860" windowWidth="25600" windowHeight="15440" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
+    <workbookView xWindow="30500" yWindow="1180" windowWidth="30580" windowHeight="17540" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>study.id</t>
   </si>
   <si>
-    <t>n.tips</t>
-  </si>
-  <si>
     <t>clade.richness</t>
   </si>
   <si>
@@ -285,6 +282,18 @@
   </si>
   <si>
     <t>Fungi</t>
+  </si>
+  <si>
+    <t>ntips</t>
+  </si>
+  <si>
+    <t>tree.min.age</t>
+  </si>
+  <si>
+    <t>tree.max.age</t>
+  </si>
+  <si>
+    <t>gamma.stat</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F6B5B-7B54-E74E-96D9-DD999532BC6A}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -677,225 +686,309 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="230.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="230.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>9993</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>3.6433401999999997E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>113.2497</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.1264439999999998</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>7238</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.225392906</v>
+      </c>
+      <c r="E3" s="1">
+        <v>312.76609999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-25.364792000000001</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
-        <v>7239</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>11638</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>2.3459430000000001E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>368.02699999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.6508700000000003</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>356305</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>6.87E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>325.05079999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>64.912092000000001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>1192</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>0.20750328400000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>378.04059999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.9705859999999999</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9754</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.3037845999999998E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>189.9633</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-25.338384999999999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9755</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>4007</v>
       </c>
+      <c r="D8" s="1">
+        <v>1.0498979E-2</v>
+      </c>
       <c r="E8" s="1">
+        <v>476.0093</v>
+      </c>
+      <c r="F8" s="1">
+        <v>39.109059999999999</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.4</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>5284</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>5.4054050399999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>442.64260000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-57.126511000000001</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trees_data.xlsx
+++ b/trees_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscohenaodiaz/Documents/UBC/Projects/MajorFeatsMacroEvol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A0658-685B-2346-A7E9-0F0AC879613D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56F102F-0753-A044-AD10-2747DEDC52E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="1180" windowWidth="30580" windowHeight="17540" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
+    <workbookView xWindow="32400" yWindow="1660" windowWidth="33280" windowHeight="10500" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>study.id</t>
   </si>
@@ -295,12 +296,45 @@
   <si>
     <t>gamma.stat</t>
   </si>
+  <si>
+    <t>taxonomy</t>
+  </si>
+  <si>
+    <t>outgroups</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <r>
+      <t>Varga, T., Krizsán, K., Földi, C., Dima, B., Sánchez-García, M., Sánchez-Ramírez, S., ... &amp; Andreopoulos, W. (2019). Megaphylogeny resolves global patterns of mushroom evolution. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature ecology &amp; evolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +367,19 @@
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -675,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F6B5B-7B54-E74E-96D9-DD999532BC6A}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -694,11 +741,13 @@
     <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="230.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="230.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,10 +782,16 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -747,13 +802,13 @@
         <v>9993</v>
       </c>
       <c r="D2" s="1">
-        <v>3.6433401999999997E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="E2" s="1">
         <v>113.2497</v>
       </c>
       <c r="F2" s="1">
-        <v>3.1264439999999998</v>
+        <v>3.1263999999999998</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
@@ -765,10 +820,16 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,13 +840,13 @@
         <v>7238</v>
       </c>
       <c r="D3" s="1">
-        <v>0.225392906</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="E3" s="1">
         <v>312.76609999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>-25.364792000000001</v>
+        <v>-25.364799999999999</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
@@ -797,10 +858,16 @@
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -811,13 +878,13 @@
         <v>11638</v>
       </c>
       <c r="D4" s="1">
-        <v>2.3459430000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E4" s="1">
         <v>368.02699999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>7.6508700000000003</v>
+        <v>7.6509</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -829,10 +896,16 @@
         <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -840,16 +913,16 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>356305</v>
+        <v>356303</v>
       </c>
       <c r="D5" s="1">
-        <v>6.87E-4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>325.05079999999998</v>
+        <v>325.05</v>
       </c>
       <c r="F5" s="1">
-        <v>64.912092000000001</v>
+        <v>-434.48140000000001</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
@@ -857,11 +930,11 @@
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -872,13 +945,13 @@
         <v>1192</v>
       </c>
       <c r="D6" s="1">
-        <v>0.20750328400000001</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="E6" s="1">
         <v>378.04059999999998</v>
       </c>
       <c r="F6" s="1">
-        <v>7.9705859999999999</v>
+        <v>7.9706000000000001</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -889,11 +962,17 @@
       <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -904,13 +983,13 @@
         <v>9754</v>
       </c>
       <c r="D7" s="1">
-        <v>4.3037845999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E7" s="1">
         <v>189.9633</v>
       </c>
       <c r="F7" s="1">
-        <v>-25.338384999999999</v>
+        <v>-25.3384</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
@@ -922,10 +1001,16 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,16 +1018,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>4007</v>
+        <v>3973</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0498979E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>476.0093</v>
+        <v>431.09620000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>39.109059999999999</v>
+        <v>34.5062</v>
       </c>
       <c r="H8" s="1">
         <v>0.4</v>
@@ -957,10 +1042,16 @@
         <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -968,16 +1059,16 @@
         <v>41</v>
       </c>
       <c r="C9" s="1">
-        <v>5284</v>
+        <v>5213</v>
       </c>
       <c r="D9" s="1">
-        <v>5.4054050399999998</v>
+        <v>5.4054000000000002</v>
       </c>
       <c r="E9" s="1">
         <v>442.64260000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>-57.126511000000001</v>
+        <v>-56.625500000000002</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>42</v>
@@ -988,7 +1079,187 @@
       <c r="K9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB63EF-56D6-8A4F-8C2C-2EA52ABF3B83}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9993</v>
+      </c>
+      <c r="C2">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>113.2497</v>
+      </c>
+      <c r="E2">
+        <v>3.1263999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7238</v>
+      </c>
+      <c r="C3">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="D3">
+        <v>312.76609999999999</v>
+      </c>
+      <c r="E3">
+        <v>-25.364799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11638</v>
+      </c>
+      <c r="C4">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D4">
+        <v>368.02699999999999</v>
+      </c>
+      <c r="E4">
+        <v>7.6509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>356303</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>325.05</v>
+      </c>
+      <c r="E5">
+        <v>-434.48140000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1192</v>
+      </c>
+      <c r="C6">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="D6">
+        <v>378.04059999999998</v>
+      </c>
+      <c r="E6">
+        <v>7.9706000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9754</v>
+      </c>
+      <c r="C7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D7">
+        <v>189.9633</v>
+      </c>
+      <c r="E7">
+        <v>-25.3384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3973</v>
+      </c>
+      <c r="C8">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>431.09620000000001</v>
+      </c>
+      <c r="E8">
+        <v>34.5062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5215</v>
+      </c>
+      <c r="C9">
+        <v>5.4054000000000002</v>
+      </c>
+      <c r="D9">
+        <v>442.64260000000002</v>
+      </c>
+      <c r="E9">
+        <v>-56.645699999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trees_data.xlsx
+++ b/trees_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscohenaodiaz/Documents/UBC/Projects/MajorFeatsMacroEvol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56F102F-0753-A044-AD10-2747DEDC52E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21080380-248E-244C-B594-83C81BEC2C70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32400" yWindow="1660" windowWidth="33280" windowHeight="10500" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="slicing" sheetId="2" r:id="rId2"/>
+    <sheet name="ranks" sheetId="4" r:id="rId3"/>
+    <sheet name="self-similarity" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t>study.id</t>
   </si>
@@ -328,6 +330,69 @@
       </rPr>
       <t>, 1.</t>
     </r>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>fern</t>
+  </si>
+  <si>
+    <t>imb_age</t>
+  </si>
+  <si>
+    <t>shape_hist</t>
+  </si>
+  <si>
+    <t>shape_age</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>amph</t>
+  </si>
+  <si>
+    <t>chon</t>
+  </si>
+  <si>
+    <t>squa</t>
+  </si>
+  <si>
+    <t>agar</t>
+  </si>
+  <si>
+    <t>imb_hist</t>
+  </si>
+  <si>
+    <t>rpanda_hist</t>
+  </si>
+  <si>
+    <t>rpanda_age</t>
+  </si>
+  <si>
+    <t>rpanda_3d</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>brs_age</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>slices</t>
   </si>
 </sst>
 </file>
@@ -402,12 +467,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,26 +792,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F6B5B-7B54-E74E-96D9-DD999532BC6A}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="230.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="235.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -802,13 +867,13 @@
         <v>9993</v>
       </c>
       <c r="D2" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E2" s="1">
-        <v>113.2497</v>
+        <v>113.25</v>
       </c>
       <c r="F2" s="1">
-        <v>3.1263999999999998</v>
+        <v>3.13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
@@ -840,13 +905,13 @@
         <v>7238</v>
       </c>
       <c r="D3" s="1">
-        <v>0.22539999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="E3" s="1">
-        <v>312.76609999999999</v>
+        <v>312.77</v>
       </c>
       <c r="F3" s="1">
-        <v>-25.364799999999999</v>
+        <v>-25.36</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
@@ -878,13 +943,13 @@
         <v>11638</v>
       </c>
       <c r="D4" s="1">
-        <v>2.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>368.02699999999999</v>
+        <v>368.03</v>
       </c>
       <c r="F4" s="1">
-        <v>7.6509</v>
+        <v>7.65</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -913,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>356303</v>
+        <v>356298</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -922,10 +987,13 @@
         <v>325.05</v>
       </c>
       <c r="F5" s="1">
-        <v>-434.48140000000001</v>
+        <v>64.91</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
@@ -945,15 +1013,15 @@
         <v>1192</v>
       </c>
       <c r="D6" s="1">
-        <v>0.20749999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="E6" s="1">
-        <v>378.04059999999998</v>
+        <v>378.04</v>
       </c>
       <c r="F6" s="1">
-        <v>7.9706000000000001</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>7.97</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -983,13 +1051,13 @@
         <v>9754</v>
       </c>
       <c r="D7" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="1">
-        <v>189.9633</v>
+        <v>189.96</v>
       </c>
       <c r="F7" s="1">
-        <v>-25.3384</v>
+        <v>-25.34</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
@@ -1021,13 +1089,13 @@
         <v>3973</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="1">
-        <v>431.09620000000001</v>
+        <v>431.1</v>
       </c>
       <c r="F8" s="1">
-        <v>34.5062</v>
+        <v>34.51</v>
       </c>
       <c r="H8" s="1">
         <v>0.4</v>
@@ -1062,13 +1130,13 @@
         <v>5213</v>
       </c>
       <c r="D9" s="1">
-        <v>5.4054000000000002</v>
+        <v>5.41</v>
       </c>
       <c r="E9" s="1">
-        <v>442.64260000000002</v>
+        <v>442.64</v>
       </c>
       <c r="F9" s="1">
-        <v>-56.625500000000002</v>
+        <v>-56.63</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>42</v>
@@ -1096,172 +1164,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB63EF-56D6-8A4F-8C2C-2EA52ABF3B83}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3BC586-CCD1-4347-9E04-39EA533FB58F}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>9993</v>
-      </c>
-      <c r="C2">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="D2">
-        <v>113.2497</v>
-      </c>
-      <c r="E2">
-        <v>3.1263999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>7238</v>
-      </c>
-      <c r="C3">
-        <v>0.22539999999999999</v>
-      </c>
-      <c r="D3">
-        <v>312.76609999999999</v>
-      </c>
-      <c r="E3">
-        <v>-25.364799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>11638</v>
-      </c>
-      <c r="C4">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D4">
-        <v>368.02699999999999</v>
-      </c>
-      <c r="E4">
-        <v>7.6509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>356303</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>325.05</v>
-      </c>
-      <c r="E5">
-        <v>-434.48140000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1192</v>
-      </c>
-      <c r="C6">
-        <v>0.20749999999999999</v>
-      </c>
-      <c r="D6">
-        <v>378.04059999999998</v>
-      </c>
-      <c r="E6">
-        <v>7.9706000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9754</v>
-      </c>
-      <c r="C7">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D7">
-        <v>189.9633</v>
-      </c>
-      <c r="E7">
-        <v>-25.3384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>3973</v>
-      </c>
-      <c r="C8">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="D8">
-        <v>431.09620000000001</v>
-      </c>
-      <c r="E8">
-        <v>34.5062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5215</v>
-      </c>
-      <c r="C9">
-        <v>5.4054000000000002</v>
-      </c>
-      <c r="D9">
-        <v>442.64260000000002</v>
-      </c>
-      <c r="E9">
-        <v>-56.645699999999998</v>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5C417-D846-F840-872A-7D089B30CC6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trees_data.xlsx
+++ b/trees_data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscohenaodiaz/Documents/UBC/Projects/MajorFeatsMacroEvol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21080380-248E-244C-B594-83C81BEC2C70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3B63D-B765-6443-865B-B2D5B7C46042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7E228B34-8B12-5E4D-8118-21C3676889E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="slicing" sheetId="2" r:id="rId2"/>
     <sheet name="ranks" sheetId="4" r:id="rId3"/>
     <sheet name="self-similarity" sheetId="3" r:id="rId4"/>
+    <sheet name="1k_trees" sheetId="5" r:id="rId5"/>
+    <sheet name="10Trees_post" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="149">
   <si>
     <t>study.id</t>
   </si>
@@ -156,49 +161,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Rabosky, D. L., Chang, J., Title, P. O., Cowman, P. F., Sallan, L., Friedman, M., ... &amp; Alfaro, M. E. (2018). An inverse latitudinal gradient in speciation rate for marine fishes. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF222222"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF222222"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF222222"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>559</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF222222"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(7714), 392.</t>
-    </r>
-  </si>
-  <si>
     <t>Spermatophyta</t>
   </si>
   <si>
@@ -335,24 +297,12 @@
     <t>bird</t>
   </si>
   <si>
-    <t>fish</t>
-  </si>
-  <si>
     <t>seed</t>
   </si>
   <si>
     <t>fern</t>
   </si>
   <si>
-    <t>imb_age</t>
-  </si>
-  <si>
-    <t>shape_hist</t>
-  </si>
-  <si>
-    <t>shape_age</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -368,38 +318,281 @@
     <t>agar</t>
   </si>
   <si>
-    <t>imb_hist</t>
-  </si>
-  <si>
-    <t>rpanda_hist</t>
-  </si>
-  <si>
-    <t>rpanda_age</t>
-  </si>
-  <si>
-    <t>rpanda_3d</t>
-  </si>
-  <si>
-    <t>cor</t>
-  </si>
-  <si>
     <t>division</t>
   </si>
   <si>
-    <t>brs_age</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
     <t>slices</t>
+  </si>
+  <si>
+    <t>agar_fams</t>
+  </si>
+  <si>
+    <t>agar_ords</t>
+  </si>
+  <si>
+    <t>amph_fams</t>
+  </si>
+  <si>
+    <t>amph_ords</t>
+  </si>
+  <si>
+    <t>bird_fams</t>
+  </si>
+  <si>
+    <t>bird_ords</t>
+  </si>
+  <si>
+    <t>chon_fams</t>
+  </si>
+  <si>
+    <t>chon_ords</t>
+  </si>
+  <si>
+    <t>fern_fams</t>
+  </si>
+  <si>
+    <t>fern_ords</t>
+  </si>
+  <si>
+    <t>squa_fams</t>
+  </si>
+  <si>
+    <t>seed_fams</t>
+  </si>
+  <si>
+    <t>seed_ords</t>
+  </si>
+  <si>
+    <t>seed_clas</t>
+  </si>
+  <si>
+    <t>U2019</t>
+  </si>
+  <si>
+    <t>Uphametal2019</t>
+  </si>
+  <si>
+    <t>Mammalia</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Upham, N. S., J. A. Esselstyn, and W. Jetz. (2019). Inferring the mammal tree: species-level sets of phylogenies for questions in ecology, evolution, and conservation. PLOS Biology. https://doi.org/10.1371/journal.pbio.3000494</t>
+  </si>
+  <si>
+    <t>mamm</t>
+  </si>
+  <si>
+    <t>tree_metrics</t>
+  </si>
+  <si>
+    <t>branch_len</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>imbalance</t>
+  </si>
+  <si>
+    <t>rpanda</t>
+  </si>
+  <si>
+    <t>mamm_fams</t>
+  </si>
+  <si>
+    <t>mamm_ords</t>
+  </si>
+  <si>
+    <t>bird_5</t>
+  </si>
+  <si>
+    <t>bird_10</t>
+  </si>
+  <si>
+    <t>bird_20</t>
+  </si>
+  <si>
+    <t>bird_30</t>
+  </si>
+  <si>
+    <t>bird_40</t>
+  </si>
+  <si>
+    <t>bird_50</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>agar_5</t>
+  </si>
+  <si>
+    <t>agar_10</t>
+  </si>
+  <si>
+    <t>agar_20</t>
+  </si>
+  <si>
+    <t>agar_30</t>
+  </si>
+  <si>
+    <t>agar_40</t>
+  </si>
+  <si>
+    <t>agar_50</t>
+  </si>
+  <si>
+    <t>amph_5</t>
+  </si>
+  <si>
+    <t>amph_10</t>
+  </si>
+  <si>
+    <t>amph_20</t>
+  </si>
+  <si>
+    <t>amph_30</t>
+  </si>
+  <si>
+    <t>amph_40</t>
+  </si>
+  <si>
+    <t>amph_50</t>
+  </si>
+  <si>
+    <t>fern_5</t>
+  </si>
+  <si>
+    <t>fern_10</t>
+  </si>
+  <si>
+    <t>fern_20</t>
+  </si>
+  <si>
+    <t>fern_30</t>
+  </si>
+  <si>
+    <t>fern_40</t>
+  </si>
+  <si>
+    <t>fern_50</t>
+  </si>
+  <si>
+    <t>fish_5</t>
+  </si>
+  <si>
+    <t>fish_10</t>
+  </si>
+  <si>
+    <t>fish_20</t>
+  </si>
+  <si>
+    <t>fish_30</t>
+  </si>
+  <si>
+    <t>fish_40</t>
+  </si>
+  <si>
+    <t>fish_50</t>
+  </si>
+  <si>
+    <t>Rabosky, D. L., Chang, J., Title, P. O., Cowman, P. F., Sallan, L., Friedman, M., ... &amp; Alfaro, M. E. (2018). An inverse latitudinal gradient in speciation rate for marine squaes. Nature, 559(7714), 392.</t>
+  </si>
+  <si>
+    <t>squa_ords</t>
+  </si>
+  <si>
+    <t>squa_5</t>
+  </si>
+  <si>
+    <t>squa_10</t>
+  </si>
+  <si>
+    <t>squa_20</t>
+  </si>
+  <si>
+    <t>squa_30</t>
+  </si>
+  <si>
+    <t>squa_40</t>
+  </si>
+  <si>
+    <t>squa_50</t>
+  </si>
+  <si>
+    <t>chon_5</t>
+  </si>
+  <si>
+    <t>chon_10</t>
+  </si>
+  <si>
+    <t>chon_20</t>
+  </si>
+  <si>
+    <t>chon_30</t>
+  </si>
+  <si>
+    <t>chon_40</t>
+  </si>
+  <si>
+    <t>chon_50</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>bird_erick</t>
+  </si>
+  <si>
+    <t>bird_hacke</t>
+  </si>
+  <si>
+    <t>seed_5</t>
+  </si>
+  <si>
+    <t>seed_10</t>
+  </si>
+  <si>
+    <t>seed_20</t>
+  </si>
+  <si>
+    <t>seed_30</t>
+  </si>
+  <si>
+    <t>seed_40</t>
+  </si>
+  <si>
+    <t>seed_50</t>
+  </si>
+  <si>
+    <t>slicing</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>self-similarity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +639,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,6 +688,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,9 +1006,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F6B5B-7B54-E74E-96D9-DD999532BC6A}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
@@ -820,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -847,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -876,19 +1094,19 @@
         <v>3.13</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>26</v>
@@ -917,16 +1135,16 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
@@ -955,59 +1173,50 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>356298</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>325.05</v>
-      </c>
-      <c r="F5" s="1">
-        <v>64.91</v>
+        <v>335619</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>1192</v>
@@ -1022,22 +1231,22 @@
         <v>7.97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1063,16 +1272,16 @@
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>23</v>
@@ -1101,19 +1310,19 @@
         <v>0.4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>14</v>
@@ -1121,40 +1330,78 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5911</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="1">
+        <v>180.85</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23.01</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1">
+        <v>5213</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="E10" s="1">
+        <v>442.64</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-56.63</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1">
-        <v>5213</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.41</v>
-      </c>
-      <c r="E9" s="1">
-        <v>442.64</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-56.63</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1164,307 +1411,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB63EF-56D6-8A4F-8C2C-2EA52ABF3B83}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>62</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>73</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>75</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>88</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1474,128 +1732,426 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3BC586-CCD1-4347-9E04-39EA533FB58F}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1605,12 +2161,2827 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5C417-D846-F840-872A-7D089B30CC6F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="16" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="1">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="1">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="1">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="1">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="1">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="1">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="1">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="1">
+        <v>112</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="1">
+        <v>102</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="1">
+        <v>105</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="1">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="1">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="1">
+        <v>101</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="1">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="1">
+        <v>61</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="1">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="1">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="1">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="1">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="1">
+        <v>83</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="1">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1">
+        <v>85</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="1">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="1">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="1">
+        <v>99</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="1">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="1">
+        <v>97</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="1">
+        <v>100</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="1">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="1">
+        <v>93</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="1">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="1">
+        <v>116</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="1">
+        <v>94</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="1">
+        <v>95</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="1">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="1">
+        <v>104</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="1">
+        <v>100</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="1">
+        <v>97</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="1">
+        <v>98</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="1">
+        <v>94</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="1">
+        <v>97</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="1">
+        <v>86</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="1">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="1">
+        <v>114</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="1">
+        <v>90</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="1">
+        <v>112</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="1">
+        <v>91</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1">
+        <v>105</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="1">
+        <v>98</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="1">
+        <v>103</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="1">
+        <v>99</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="1">
+        <v>99</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="1">
+        <v>91</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="1">
+        <v>137</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="1">
+        <v>102</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="1">
+        <v>98</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="1">
+        <v>109</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="1">
+        <v>106</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C2C559-FA78-A64F-88F7-29F45095E301}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9CA1D-ACAC-BF43-9448-7234CDDC5A3F}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>